--- a/코틀린 강의_최종본.xlsx
+++ b/코틀린 강의_최종본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a06411/Documents/GitHub/jscoding_kotlin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CADE38B-E77D-DA42-86C6-228B0087C8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E151CF-BB61-4448-82BE-C8E574E0BDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="2160" windowWidth="28300" windowHeight="17440" xr2:uid="{A0FFF435-CB90-E14D-83DE-47CA4D36F651}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>강의내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,18 +149,6 @@
     <t>6주</t>
   </si>
   <si>
-    <t>함수형 프로그래밍  기본 기법 (컬렉션 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">변수, 상수, 연산자 , 제어 및 순환문, 함수 정의, 매개변수 처리, 클래스, 생성자, 메서드  기본 알아보기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2장 3장 ,4장, 5장 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코루틴 알아보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,15 +161,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6장, 10장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래스 관계, 메서드 재정의 , 추상 클래스, 인터페이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7장, 9장</t>
+    <t>교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">클래스, 생성자, 메서드  기본 알아보기 </t>
+  </si>
+  <si>
+    <t>변수, 상수, 연산자 , 제어 및 순환문 등 기본 이해하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 정의, 매개변수 처리 등 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역클래스, 내포클래스, 이너클래스 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">object 표현식, object 정의, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2장 3장 ,4장, 5장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장 속성과 확장 함수 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수형 처리기법 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬렉션 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제너릭함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제너릭 클래스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">코루틴 디스패처, 코루틴 빌더, 일시중단함수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 상속, 메서드 오버라이딩 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">클래스 연관 , 데이터 클래스, 이넘클래스 알아보기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추상클래스, 인터페이스 , 봉인 클래스 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5장, 7장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9장 10장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">코루틴   채널 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연산자 및 메서드 재정의, 가시성 등 알아보기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8장, 11장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,6 +252,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -232,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -270,7 +332,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -288,85 +350,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -566,6 +553,180 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -574,93 +735,138 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,224 +1182,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F97EA-8B14-3546-A94B-237A306267DA}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="27">
-      <c r="D2" s="19" t="s">
+    <row r="2" spans="2:8" ht="27">
+      <c r="D2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:8" ht="19" thickBot="1"/>
+    <row r="4" spans="2:8" ht="19" thickBot="1">
+      <c r="B4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="2:8" ht="19" thickBot="1">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="24" customHeight="1">
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="27">
+        <v>4</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="39">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="24" customHeight="1">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="40">
+        <v>2</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="24" customHeight="1">
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="40">
+        <v>3</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="24" customHeight="1">
+      <c r="B9" s="37"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="42">
+        <v>4</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="24" customHeight="1">
+      <c r="B10" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="36">
+        <v>4</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="24" customHeight="1">
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="40">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="24" customHeight="1">
+      <c r="B12" s="25"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="40">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="24" customHeight="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="42">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="24" customHeight="1">
+      <c r="B14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="36">
+        <v>4</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="24" customHeight="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="40">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="24" customHeight="1">
+      <c r="B16" s="25"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="40">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1">
+      <c r="B17" s="37"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="42">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1">
+      <c r="B18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="36">
+        <v>4</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1">
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="40">
+        <v>2</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1">
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="40">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1">
+      <c r="B21" s="37"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="42">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1">
+      <c r="B22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="36">
+        <v>4</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="40">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="40">
+        <v>2</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1">
+      <c r="B24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="40">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1">
+      <c r="B25" s="37"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="42">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1">
+      <c r="B26" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="36">
+        <v>4</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="40">
+        <v>1</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1">
+      <c r="B27" s="25"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="42">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1">
+      <c r="B28" s="25"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="40">
+        <v>3</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" thickBot="1">
+      <c r="B29" s="26"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="40">
+        <v>4</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1">
+      <c r="B30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="2:7" ht="19" thickBot="1"/>
-    <row r="4" spans="2:7" ht="19" thickBot="1">
-      <c r="B4" s="26" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="14">
+        <f>SUM(D6:D26)</f>
+        <v>24</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" ht="19" thickBot="1"/>
+    <row r="32" spans="2:8">
+      <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="2:7" ht="19" thickBot="1">
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="19" thickBot="1">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="19" thickBot="1">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="19" thickBot="1">
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="19" thickBot="1">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="19" thickBot="1">
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="19" thickBot="1">
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="19" thickBot="1">
-      <c r="B12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21">
-        <f>SUM(D6:D11)</f>
-        <v>24</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="2:7" ht="19" thickBot="1"/>
-    <row r="14" spans="2:7">
-      <c r="B14" s="13" t="s">
+      <c r="C32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5" ht="19" thickBot="1">
+      <c r="B33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" ht="19" thickBot="1">
-      <c r="B15" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
+  <mergeCells count="37">
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="B22:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/코틀린 강의_최종본.xlsx
+++ b/코틀린 강의_최종본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a06411/Documents/GitHub/jscoding_kotlin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E151CF-BB61-4448-82BE-C8E574E0BDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1F477-3BA2-5147-BD36-756655A3E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="2160" windowWidth="28300" windowHeight="17440" xr2:uid="{A0FFF435-CB90-E14D-83DE-47CA4D36F651}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>강의내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <t>4주</t>
   </si>
   <si>
-    <t xml:space="preserve">클래스 위임 및 속성 위임 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,21 +68,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클래스 확장 기능 알아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함수형 처리 기법 알아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제너릭 알아보기</t>
   </si>
   <si>
-    <t>클래스 위임 처리 알아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">일정 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">문법 기본 알아보기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강의 계획서(코틀린 문법)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +225,34 @@
   </si>
   <si>
     <t>8장, 11장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬렉션 클래스 및 클래스 위임 처리 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추생 클래스/인터페이스, 확장속성 및 , 확장함수, 함수형 처리 기법 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 클래스, object, 클래스 상속, 연관관계 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문법 기본  및 함수/클래스 알아보기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스코프 함수 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">속성 위임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">클래스 위임 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +771,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -778,9 +837,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,6 +858,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,71 +873,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,7 +1205,7 @@
   <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F25"/>
+      <selection activeCell="F26" sqref="F26:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1199,480 +1219,459 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="27">
-      <c r="D2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:8" ht="19" thickBot="1"/>
     <row r="4" spans="2:8" ht="19" thickBot="1">
-      <c r="B4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="2:8" ht="19" thickBot="1">
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="24" customHeight="1">
+      <c r="B6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22">
+        <v>4</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="24" customHeight="1">
+      <c r="B7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="24" customHeight="1">
+      <c r="B8" s="24"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="15">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="24" customHeight="1">
+      <c r="B9" s="25"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="17">
+        <v>4</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="24" customHeight="1">
+      <c r="B10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="24" customHeight="1">
+      <c r="B11" s="24"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="15">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="24" customHeight="1">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="24" customHeight="1">
+      <c r="B13" s="25"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="17">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="24" customHeight="1">
+      <c r="B14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="19">
+        <v>4</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="24" customHeight="1">
+      <c r="B15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="24" customHeight="1">
+      <c r="B16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="15">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1">
+      <c r="B17" s="25"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1">
+      <c r="B18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="19">
+        <v>4</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1">
+      <c r="B19" s="24"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="15">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1">
+      <c r="B20" s="24"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="15">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1">
+      <c r="B21" s="25"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="17">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1">
+      <c r="B22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="19">
+        <v>4</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="F22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1">
+      <c r="B23" s="24"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="15">
+        <v>2</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1">
+      <c r="B24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="15">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1">
+      <c r="B25" s="25"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="17">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1">
+      <c r="B26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="24" customHeight="1">
-      <c r="B6" s="24" t="s">
+      <c r="D26" s="19">
+        <v>4</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="H26" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1">
+      <c r="B27" s="24"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="17">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1">
+      <c r="B28" s="24"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="15">
+        <v>3</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" thickBot="1">
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="15">
         <v>4</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="39">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="24" customHeight="1">
-      <c r="B7" s="25"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="40">
-        <v>2</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="24" customHeight="1">
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="40">
-        <v>3</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="24" customHeight="1">
-      <c r="B9" s="37"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="42">
-        <v>4</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="24" customHeight="1">
-      <c r="B10" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="36">
-        <v>4</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="40">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="24" customHeight="1">
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="40">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="24" customHeight="1">
-      <c r="B12" s="25"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="40">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="24" customHeight="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="42">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="24" customHeight="1">
-      <c r="B14" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="36">
-        <v>4</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="40">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="24" customHeight="1">
-      <c r="B15" s="25"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="40">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="24" customHeight="1">
-      <c r="B16" s="25"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="40">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="42">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1">
-      <c r="B18" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="36">
-        <v>4</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="40">
-        <v>1</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="40">
-        <v>2</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="40">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="42">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1">
-      <c r="B22" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="36">
-        <v>4</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="40">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1">
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="40">
-        <v>2</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="40">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="H29" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1">
+      <c r="B30" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1">
-      <c r="B25" s="37"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="42">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1">
-      <c r="B26" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="36">
-        <v>4</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="40">
-        <v>1</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1">
-      <c r="B27" s="25"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="42">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1">
-      <c r="B28" s="25"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="40">
-        <v>3</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" thickBot="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="40">
-        <v>4</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1">
-      <c r="B30" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="14">
+      <c r="C30" s="32"/>
+      <c r="D30" s="33">
         <f>SUM(D6:D26)</f>
         <v>24</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="15"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="2:8" ht="19" thickBot="1"/>
     <row r="32" spans="2:8">
       <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="2:5" ht="19" thickBot="1">
       <c r="B33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="D2:F2"/>
@@ -1689,6 +1688,27 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/코틀린 강의_최종본.xlsx
+++ b/코틀린 강의_최종본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a06411/Documents/GitHub/jscoding_kotlin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1F477-3BA2-5147-BD36-756655A3E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2AB45B-C9CA-1B4D-8571-F51C69B6BE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="2160" windowWidth="28300" windowHeight="17440" xr2:uid="{A0FFF435-CB90-E14D-83DE-47CA4D36F651}"/>
   </bookViews>
@@ -56,10 +56,6 @@
     <t>4주</t>
   </si>
   <si>
-    <t>12장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">코루틴, 플로우, 액터 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,6 +245,14 @@
   </si>
   <si>
     <t xml:space="preserve">클래스 위임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12장, 13장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,27 +801,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -874,6 +853,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1219,459 +1219,480 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="27">
-      <c r="D2" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:8" ht="19" thickBot="1"/>
     <row r="4" spans="2:8" ht="19" thickBot="1">
-      <c r="B4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="2:8" ht="19" thickBot="1">
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="2:8" ht="24" customHeight="1">
+      <c r="B6" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="24" customHeight="1">
-      <c r="B6" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="D6" s="39">
         <v>4</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="G6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="24" customHeight="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="15">
         <v>2</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="24" customHeight="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="15">
         <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="24" customHeight="1">
-      <c r="B9" s="25"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="17">
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="24" customHeight="1">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="43">
         <v>4</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="15">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="24" customHeight="1">
-      <c r="B11" s="24"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="15">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="24" customHeight="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="15">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="24" customHeight="1">
-      <c r="B13" s="25"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="46"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="17">
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="24" customHeight="1">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="43">
         <v>4</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="G14" s="15">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="24" customHeight="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="45"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="15">
         <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="24" customHeight="1">
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="45"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="15">
         <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="24" customHeight="1">
-      <c r="B17" s="25"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="17">
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="C18" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="43">
         <v>4</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="G18" s="15">
         <v>1</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="24"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="15">
         <v>2</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="24"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="15">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="25"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="17">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="24" customHeight="1">
-      <c r="B22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="19">
+      <c r="B22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="43">
         <v>4</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="G22" s="15">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="24" customHeight="1">
-      <c r="B23" s="24"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="15">
         <v>2</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="24" customHeight="1">
-      <c r="B24" s="24"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="15">
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="17">
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="24" customHeight="1">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="43">
+        <v>4</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="19">
-        <v>4</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>25</v>
+      <c r="F26" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="G26" s="15">
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="24" customHeight="1">
-      <c r="B27" s="24"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="45"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="17">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="24" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="45"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="15">
         <v>3</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="24" customHeight="1" thickBot="1">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="45"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="15">
         <v>4</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1">
-      <c r="B30" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33">
+      <c r="B30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26">
         <f>SUM(D6:D26)</f>
         <v>24</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="2:8" ht="19" thickBot="1"/>
     <row r="32" spans="2:8">
       <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="2:5" ht="19" thickBot="1">
       <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="D2:F2"/>
@@ -1688,27 +1709,6 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
